--- a/docs/wdo_sitemap.xlsx
+++ b/docs/wdo_sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168D435-81E6-5A48-9780-A91A032823F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F2E8C-4F95-0B49-98BB-C74773CE88FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32080" yWindow="-5140" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wmflabs.org" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
   <si>
     <t>Category</t>
   </si>
@@ -196,9 +196,6 @@
     <t>CCC Coverage</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Top CCC articles</t>
   </si>
   <si>
@@ -208,12 +205,6 @@
     <t>/ccc_editors/</t>
   </si>
   <si>
-    <t>CCC Multilingual Editors</t>
-  </si>
-  <si>
-    <t>/ccc_multilingual_editors/</t>
-  </si>
-  <si>
     <t>Missing CCC</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>Developed</t>
   </si>
   <si>
-    <t>/serch_ccc_article/</t>
-  </si>
-  <si>
     <t>Incomplete CCC</t>
   </si>
   <si>
@@ -293,13 +281,67 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>/ethnic_groups_gap/</t>
+  </si>
+  <si>
+    <t>Gender Gap</t>
+  </si>
+  <si>
+    <t>Ethnic Groups Gap</t>
+  </si>
+  <si>
+    <t>LGBT+ Gap</t>
+  </si>
+  <si>
+    <t>/lgbtq_gap/</t>
+  </si>
+  <si>
+    <t>Religious Groups Gap</t>
+  </si>
+  <si>
+    <t>Time Gap</t>
+  </si>
+  <si>
+    <t>/religious_groups_gap/</t>
+  </si>
+  <si>
+    <t>/time_gap/</t>
+  </si>
+  <si>
+    <t>Recent Changes Diversity</t>
+  </si>
+  <si>
+    <t>/recent_changes_diversity/</t>
+  </si>
+  <si>
+    <t>/search_ccc_article/</t>
+  </si>
+  <si>
+    <t>LGBT+ Topics Articles</t>
+  </si>
+  <si>
+    <t>/lgbtq_articles/</t>
+  </si>
+  <si>
+    <t>/ethnic_groups_articles/</t>
+  </si>
+  <si>
+    <t>Ethnic Groups Articles</t>
+  </si>
+  <si>
+    <t>Time Diversity Articles</t>
+  </si>
+  <si>
+    <t>/time_articles/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +386,13 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -411,6 +460,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +602,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:H41" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal">
-  <autoFilter ref="A2:H41" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A3:H41">
-    <sortCondition ref="B2:B41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:H52" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal">
+  <autoFilter ref="A2:H52" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState ref="A3:H52">
+    <sortCondition ref="B2:B52"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="7"/>
@@ -868,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,13 +953,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -935,7 +985,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>50</v>
@@ -955,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -972,13 +1022,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -995,10 +1045,10 @@
         <v>55</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>32</v>
@@ -1019,10 +1069,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>32</v>
@@ -1032,19 +1082,19 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>42</v>
@@ -1064,10 +1114,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>53</v>
@@ -1089,7 +1139,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>45</v>
@@ -1111,7 +1161,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>46</v>
@@ -1133,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>47</v>
@@ -1145,13 +1195,19 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1164,13 +1220,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1178,19 +1234,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="5">
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>52</v>
@@ -1200,19 +1256,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>52</v>
@@ -1221,13 +1277,19 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1237,20 +1299,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="5">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D18" s="12"/>
       <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
@@ -1259,36 +1317,32 @@
         <v>4</v>
       </c>
       <c r="B19" s="5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="5" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>5</v>
+      <c r="A20" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="B20" s="5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>88</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D20" s="12"/>
       <c r="E20" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1296,19 +1350,17 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>88</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="5" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1316,19 +1368,17 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="5" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1336,58 +1386,62 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D23" s="12"/>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A24" s="14"/>
       <c r="B24" s="5">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="12"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1395,29 +1449,51 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="5"/>
+      <c r="A28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="5">
+        <v>27</v>
+      </c>
+      <c r="C29" s="19"/>
       <c r="D29" s="12"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1425,19 +1501,31 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="5">
+        <v>28</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="5">
+        <v>29</v>
+      </c>
+      <c r="C31" s="19"/>
       <c r="D31" s="12"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1445,9 +1533,11 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="5">
+        <v>30</v>
+      </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="12"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1455,9 +1545,11 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="5">
+        <v>31</v>
+      </c>
+      <c r="C33" s="19"/>
       <c r="D33" s="12"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1465,27 +1557,47 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5">
+        <v>32</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="5"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -1504,7 +1616,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="12"/>
@@ -1514,7 +1626,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="12"/>
@@ -1524,7 +1636,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="12"/>
@@ -1544,75 +1656,185 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/wdo_sitemap.xlsx
+++ b/docs/wdo_sitemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F2E8C-4F95-0B49-98BB-C74773CE88FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376B8F1C-5200-4049-85BD-A56E7CBFA4F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32080" yWindow="-5140" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29880" yWindow="-10080" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wmflabs.org" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
   <si>
     <t>Category</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>/time_articles/</t>
+  </si>
+  <si>
+    <t>Content Gaps Metrics</t>
+  </si>
+  <si>
+    <t>/content_gaps_metrics/</t>
   </si>
 </sst>
 </file>
@@ -920,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,9 +1543,13 @@
       <c r="B32" s="5">
         <v>30</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>

--- a/docs/wdo_sitemap.xlsx
+++ b/docs/wdo_sitemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376B8F1C-5200-4049-85BD-A56E7CBFA4F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDAB3F-8ED9-3241-BF5A-30A0A31D0B18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="-10080" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="-7420" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wmflabs.org" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
   <si>
     <t>Category</t>
   </si>
@@ -341,6 +341,21 @@
   </si>
   <si>
     <t>/content_gaps_metrics/</t>
+  </si>
+  <si>
+    <t>Medical Articles</t>
+  </si>
+  <si>
+    <t>/medical_articles/</t>
+  </si>
+  <si>
+    <t>Map of Gaps</t>
+  </si>
+  <si>
+    <t>/map_of_gaps/</t>
+  </si>
+  <si>
+    <t>Gender Gap Main Page</t>
   </si>
 </sst>
 </file>
@@ -927,7 +942,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,13 +1424,19 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1443,13 +1464,19 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1495,11 +1522,15 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="D29" s="12"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
